--- a/Code/Results/Cases/Case_3_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9858781824694367</v>
+        <v>1.015084137785888</v>
       </c>
       <c r="D2">
-        <v>1.006088685727124</v>
+        <v>1.022087458887605</v>
       </c>
       <c r="E2">
-        <v>0.9942985331169434</v>
+        <v>1.016789755207229</v>
       </c>
       <c r="F2">
-        <v>0.9600641454543305</v>
+        <v>1.031379151959334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035335793528219</v>
+        <v>1.027856425568314</v>
       </c>
       <c r="J2">
-        <v>1.00848963794279</v>
+        <v>1.020311677675691</v>
       </c>
       <c r="K2">
-        <v>1.017463842244948</v>
+        <v>1.024922873412079</v>
       </c>
       <c r="L2">
-        <v>1.005837874096779</v>
+        <v>1.019640877351437</v>
       </c>
       <c r="M2">
-        <v>0.9721093879060264</v>
+        <v>1.034187440470943</v>
       </c>
       <c r="N2">
-        <v>1.006849915260267</v>
+        <v>1.010885623835997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9898149330082406</v>
+        <v>1.015908660707405</v>
       </c>
       <c r="D3">
-        <v>1.00898468234115</v>
+        <v>1.022701767512549</v>
       </c>
       <c r="E3">
-        <v>0.9973829988119365</v>
+        <v>1.017485464114561</v>
       </c>
       <c r="F3">
-        <v>0.9712746894724055</v>
+        <v>1.033484698000304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036545201426922</v>
+        <v>1.028024443252112</v>
       </c>
       <c r="J3">
-        <v>1.010587157379693</v>
+        <v>1.020771720121332</v>
       </c>
       <c r="K3">
-        <v>1.019503878867277</v>
+        <v>1.025344299351542</v>
       </c>
       <c r="L3">
-        <v>1.008049474535584</v>
+        <v>1.02014234503132</v>
       </c>
       <c r="M3">
-        <v>0.9822888066120231</v>
+        <v>1.036098064794355</v>
       </c>
       <c r="N3">
-        <v>1.00755645946524</v>
+        <v>1.011039298832621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.99231072464021</v>
+        <v>1.016442678424688</v>
       </c>
       <c r="D4">
-        <v>1.010818997442783</v>
+        <v>1.023099366411004</v>
       </c>
       <c r="E4">
-        <v>0.999344375227182</v>
+        <v>1.01793646191169</v>
       </c>
       <c r="F4">
-        <v>0.9782143622557478</v>
+        <v>1.03484167562757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037291340915476</v>
+        <v>1.028131507387049</v>
       </c>
       <c r="J4">
-        <v>1.01191318924391</v>
+        <v>1.021069264025487</v>
       </c>
       <c r="K4">
-        <v>1.020788577079218</v>
+        <v>1.025616399319271</v>
       </c>
       <c r="L4">
-        <v>1.009450719508167</v>
+        <v>1.020466982454274</v>
       </c>
       <c r="M4">
-        <v>0.9885830320626345</v>
+        <v>1.037328573142726</v>
       </c>
       <c r="N4">
-        <v>1.008002969425408</v>
+        <v>1.011138646340427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9933481057919155</v>
+        <v>1.016667297394194</v>
       </c>
       <c r="D5">
-        <v>1.011581068837527</v>
+        <v>1.023266540252471</v>
       </c>
       <c r="E5">
-        <v>1.00016101436123</v>
+        <v>1.018126258334186</v>
       </c>
       <c r="F5">
-        <v>0.9810628305239968</v>
+        <v>1.035410873689784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037596722075709</v>
+        <v>1.028176122095616</v>
       </c>
       <c r="J5">
-        <v>1.012463476322303</v>
+        <v>1.02119431877792</v>
       </c>
       <c r="K5">
-        <v>1.021320555029447</v>
+        <v>1.025730648464343</v>
       </c>
       <c r="L5">
-        <v>1.010032945045109</v>
+        <v>1.020603496222721</v>
       </c>
       <c r="M5">
-        <v>0.9911648227714903</v>
+        <v>1.037844519566617</v>
       </c>
       <c r="N5">
-        <v>1.008188223579171</v>
+        <v>1.011180390138239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9935216053813745</v>
+        <v>1.016705018796649</v>
       </c>
       <c r="D6">
-        <v>1.011708502829515</v>
+        <v>1.023294610819279</v>
       </c>
       <c r="E6">
-        <v>1.000297676151351</v>
+        <v>1.01815813750316</v>
       </c>
       <c r="F6">
-        <v>0.9815372232164302</v>
+        <v>1.035506370619909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037647521837685</v>
+        <v>1.028183589965306</v>
       </c>
       <c r="J6">
-        <v>1.01255545913772</v>
+        <v>1.021215314087121</v>
       </c>
       <c r="K6">
-        <v>1.021409410502438</v>
+        <v>1.025749823082825</v>
       </c>
       <c r="L6">
-        <v>1.010130308770134</v>
+        <v>1.020626419585812</v>
       </c>
       <c r="M6">
-        <v>0.9915946985479318</v>
+        <v>1.037931070328595</v>
       </c>
       <c r="N6">
-        <v>1.00821918702383</v>
+        <v>1.01118739781488</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.992324632115404</v>
+        <v>1.01644567933213</v>
       </c>
       <c r="D7">
-        <v>1.010829215430338</v>
+        <v>1.02310160010558</v>
       </c>
       <c r="E7">
-        <v>0.9993553179144462</v>
+        <v>1.017938997208419</v>
       </c>
       <c r="F7">
-        <v>0.9782526869704242</v>
+        <v>1.034849286254934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037295453506756</v>
+        <v>1.028132105082004</v>
       </c>
       <c r="J7">
-        <v>1.011920570037226</v>
+        <v>1.021070935142433</v>
       </c>
       <c r="K7">
-        <v>1.020795716818927</v>
+        <v>1.025617926478998</v>
       </c>
       <c r="L7">
-        <v>1.009458525830035</v>
+        <v>1.020468806416665</v>
       </c>
       <c r="M7">
-        <v>0.9886177757337608</v>
+        <v>1.037335472551563</v>
       </c>
       <c r="N7">
-        <v>1.008005454340315</v>
+        <v>1.011139204209425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9872196074802292</v>
+        <v>1.015362685887752</v>
       </c>
       <c r="D8">
-        <v>1.007075853903293</v>
+        <v>1.022295046208884</v>
       </c>
       <c r="E8">
-        <v>0.9953482899924886</v>
+        <v>1.017024701219309</v>
       </c>
       <c r="F8">
-        <v>0.9639219407082098</v>
+        <v>1.032091877889973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035752334780453</v>
+        <v>1.027913551152555</v>
       </c>
       <c r="J8">
-        <v>1.009205150902099</v>
+        <v>1.020467178660187</v>
       </c>
       <c r="K8">
-        <v>1.018160823774921</v>
+        <v>1.025065418468549</v>
       </c>
       <c r="L8">
-        <v>1.006591642529104</v>
+        <v>1.019810318308593</v>
       </c>
       <c r="M8">
-        <v>0.975613853232842</v>
+        <v>1.034834361212831</v>
       </c>
       <c r="N8">
-        <v>1.007090965555031</v>
+        <v>1.010937577619989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9778047630776263</v>
+        <v>1.0134581519896</v>
       </c>
       <c r="D9">
-        <v>1.000138182534993</v>
+        <v>1.020874592173676</v>
       </c>
       <c r="E9">
-        <v>0.9880068023288203</v>
+        <v>1.015419984945692</v>
       </c>
       <c r="F9">
-        <v>0.9359241956591096</v>
+        <v>1.027189872362439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032731648830024</v>
+        <v>1.02751571120355</v>
       </c>
       <c r="J9">
-        <v>1.004166395458363</v>
+        <v>1.019402277278631</v>
       </c>
       <c r="K9">
-        <v>1.013229018221676</v>
+        <v>1.024087313516823</v>
       </c>
       <c r="L9">
-        <v>1.001297504695641</v>
+        <v>1.018651192055721</v>
       </c>
       <c r="M9">
-        <v>0.9501500856876334</v>
+        <v>1.030381460319251</v>
       </c>
       <c r="N9">
-        <v>1.005392920020627</v>
+        <v>1.010581602672693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9712079671710201</v>
+        <v>1.012191093028334</v>
       </c>
       <c r="D10">
-        <v>0.9952615778961106</v>
+        <v>1.019928196252319</v>
       </c>
       <c r="E10">
-        <v>0.982897416962892</v>
+        <v>1.014354538316065</v>
       </c>
       <c r="F10">
-        <v>0.9148210898025741</v>
+        <v>1.023890989568029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0304764770062</v>
+        <v>1.02724186259601</v>
       </c>
       <c r="J10">
-        <v>1.000612400939575</v>
+        <v>1.018691696727212</v>
       </c>
       <c r="K10">
-        <v>1.009716916318972</v>
+        <v>1.023432217713777</v>
       </c>
       <c r="L10">
-        <v>0.9975824857120931</v>
+        <v>1.017879299088782</v>
       </c>
       <c r="M10">
-        <v>0.9309197309744006</v>
+        <v>1.027380417523079</v>
       </c>
       <c r="N10">
-        <v>1.004194744519145</v>
+        <v>1.010343839476615</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9682652572903747</v>
+        <v>1.011643076034334</v>
       </c>
       <c r="D11">
-        <v>0.9930807374772715</v>
+        <v>1.019518539400238</v>
       </c>
       <c r="E11">
-        <v>0.9806268001465011</v>
+        <v>1.01389423712305</v>
       </c>
       <c r="F11">
-        <v>0.9049230993125393</v>
+        <v>1.022454784957048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02943113924937</v>
+        <v>1.027121221850237</v>
       </c>
       <c r="J11">
-        <v>0.9990205402657898</v>
+        <v>1.018383859840849</v>
       </c>
       <c r="K11">
-        <v>1.008134331365562</v>
+        <v>1.023147837486483</v>
       </c>
       <c r="L11">
-        <v>0.9959235541477546</v>
+        <v>1.017545272656863</v>
       </c>
       <c r="M11">
-        <v>0.9218921946429257</v>
+        <v>1.026072840084491</v>
       </c>
       <c r="N11">
-        <v>1.003658024017571</v>
+        <v>1.01024078195399</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671581963471603</v>
+        <v>1.011439613162708</v>
       </c>
       <c r="D12">
-        <v>0.9922592459262776</v>
+        <v>1.019366395943841</v>
       </c>
       <c r="E12">
-        <v>0.9797738981334831</v>
+        <v>1.013723418725557</v>
       </c>
       <c r="F12">
-        <v>0.9011114981525327</v>
+        <v>1.021920110616982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029031213173198</v>
+        <v>1.02707609916055</v>
       </c>
       <c r="J12">
-        <v>0.9984205821107368</v>
+        <v>1.018269493247857</v>
       </c>
       <c r="K12">
-        <v>1.00753626450636</v>
+        <v>1.023042097922</v>
       </c>
       <c r="L12">
-        <v>0.9952991353892836</v>
+        <v>1.017421232282377</v>
       </c>
       <c r="M12">
-        <v>0.918414714743098</v>
+        <v>1.025585895174092</v>
       </c>
       <c r="N12">
-        <v>1.003455738166185</v>
+        <v>1.010202486283023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9673963174190253</v>
+        <v>1.011483252327393</v>
       </c>
       <c r="D13">
-        <v>0.9924359949345245</v>
+        <v>1.019399030258666</v>
       </c>
       <c r="E13">
-        <v>0.9799572917093268</v>
+        <v>1.013760052686529</v>
       </c>
       <c r="F13">
-        <v>0.9019356095225028</v>
+        <v>1.022034855164771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029117550082267</v>
+        <v>1.027085792243821</v>
       </c>
       <c r="J13">
-        <v>0.9985496806416105</v>
+        <v>1.018294026271795</v>
       </c>
       <c r="K13">
-        <v>1.007665031986002</v>
+        <v>1.023064784308926</v>
       </c>
       <c r="L13">
-        <v>0.9954334592917412</v>
+        <v>1.017447837909807</v>
       </c>
       <c r="M13">
-        <v>0.9191666318529754</v>
+        <v>1.025690403746883</v>
       </c>
       <c r="N13">
-        <v>1.003499265790714</v>
+        <v>1.010210701533859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9681740397603229</v>
+        <v>1.011626255787072</v>
       </c>
       <c r="D14">
-        <v>0.9930130726712526</v>
+        <v>1.019505962736695</v>
       </c>
       <c r="E14">
-        <v>0.980556497506701</v>
+        <v>1.013880113992518</v>
       </c>
       <c r="F14">
-        <v>0.9046109274936907</v>
+        <v>1.022410613387823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029398327447586</v>
+        <v>1.027117498354668</v>
       </c>
       <c r="J14">
-        <v>0.9989711290754919</v>
+        <v>1.01837440671463</v>
       </c>
       <c r="K14">
-        <v>1.008085109740973</v>
+        <v>1.023139099226118</v>
       </c>
       <c r="L14">
-        <v>0.9958721114387914</v>
+        <v>1.017535018786247</v>
       </c>
       <c r="M14">
-        <v>0.9216074085488734</v>
+        <v>1.026032614817688</v>
       </c>
       <c r="N14">
-        <v>1.003641364185935</v>
+        <v>1.010237616737433</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9686513295471579</v>
+        <v>1.011714377552914</v>
       </c>
       <c r="D15">
-        <v>0.9933670800541888</v>
+        <v>1.019571850207071</v>
       </c>
       <c r="E15">
-        <v>0.9809244051704944</v>
+        <v>1.013954108688857</v>
       </c>
       <c r="F15">
-        <v>0.9062406623780142</v>
+        <v>1.022641969766212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029569736455756</v>
+        <v>1.027136992234852</v>
       </c>
       <c r="J15">
-        <v>0.9992296245747193</v>
+        <v>1.018423928819185</v>
       </c>
       <c r="K15">
-        <v>1.00834254699637</v>
+        <v>1.023184872776381</v>
       </c>
       <c r="L15">
-        <v>0.9961412685457894</v>
+        <v>1.017588738048775</v>
       </c>
       <c r="M15">
-        <v>0.9230941297144509</v>
+        <v>1.026243295348886</v>
       </c>
       <c r="N15">
-        <v>1.003728520399514</v>
+        <v>1.010254198031607</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9714013623485634</v>
+        <v>1.012227476401061</v>
       </c>
       <c r="D16">
-        <v>0.9954047715273051</v>
+        <v>1.019955386795081</v>
       </c>
       <c r="E16">
-        <v>0.9830468230651936</v>
+        <v>1.014385109083321</v>
       </c>
       <c r="F16">
-        <v>0.9154603173886789</v>
+        <v>1.023986138947763</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030544298801892</v>
+        <v>1.027249825545245</v>
       </c>
       <c r="J16">
-        <v>1.00071687405305</v>
+        <v>1.018712123703787</v>
       </c>
       <c r="K16">
-        <v>1.009820569539536</v>
+        <v>1.02345107593598</v>
       </c>
       <c r="L16">
-        <v>0.9976914702729256</v>
+        <v>1.017901471765061</v>
       </c>
       <c r="M16">
-        <v>0.931502590342498</v>
+        <v>1.027467023407028</v>
       </c>
       <c r="N16">
-        <v>1.004229968775496</v>
+        <v>1.010350676879001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9731026057622358</v>
+        <v>1.012549498361295</v>
       </c>
       <c r="D17">
-        <v>0.9966637647097711</v>
+        <v>1.020196006680199</v>
       </c>
       <c r="E17">
-        <v>0.9843620870114081</v>
+        <v>1.014655744579163</v>
       </c>
       <c r="F17">
-        <v>0.9210269936451633</v>
+        <v>1.024827195393797</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031136367467524</v>
+        <v>1.027320049679481</v>
       </c>
       <c r="J17">
-        <v>1.001635147499486</v>
+        <v>1.018892860644194</v>
       </c>
       <c r="K17">
-        <v>1.010730544180322</v>
+        <v>1.023617865542336</v>
       </c>
       <c r="L17">
-        <v>0.9986499760716606</v>
+        <v>1.018097697576043</v>
       </c>
       <c r="M17">
-        <v>0.9365775209843596</v>
+        <v>1.02823244122872</v>
       </c>
       <c r="N17">
-        <v>1.004539569912494</v>
+        <v>1.010411167665015</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9740866690942276</v>
+        <v>1.012737388860058</v>
       </c>
       <c r="D18">
-        <v>0.9973915130966025</v>
+        <v>1.020336369553224</v>
       </c>
       <c r="E18">
-        <v>0.9851236977237633</v>
+        <v>1.014813702367506</v>
       </c>
       <c r="F18">
-        <v>0.9242022511655574</v>
+        <v>1.025317022567164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031475172208054</v>
+        <v>1.027360811330537</v>
       </c>
       <c r="J18">
-        <v>1.002165706063405</v>
+        <v>1.018998266867247</v>
       </c>
       <c r="K18">
-        <v>1.011255424843434</v>
+        <v>1.023715081686386</v>
       </c>
       <c r="L18">
-        <v>0.9992042532348762</v>
+        <v>1.018212172831337</v>
       </c>
       <c r="M18">
-        <v>0.9394715485998639</v>
+        <v>1.028678116738073</v>
       </c>
       <c r="N18">
-        <v>1.004718445674835</v>
+        <v>1.010446440823816</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9744208401231186</v>
+        <v>1.012801464910723</v>
       </c>
       <c r="D19">
-        <v>0.9976385646009872</v>
+        <v>1.020384231917139</v>
       </c>
       <c r="E19">
-        <v>0.985382464644496</v>
+        <v>1.014867578935498</v>
       </c>
       <c r="F19">
-        <v>0.9252733173402157</v>
+        <v>1.025483915416099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031589621113287</v>
+        <v>1.027374676307626</v>
       </c>
       <c r="J19">
-        <v>1.002345774847423</v>
+        <v>1.019034205180507</v>
       </c>
       <c r="K19">
-        <v>1.011433421331076</v>
+        <v>1.02374821810516</v>
       </c>
       <c r="L19">
-        <v>0.9993924507459063</v>
+        <v>1.018251209318264</v>
       </c>
       <c r="M19">
-        <v>0.9404476237504817</v>
+        <v>1.028829949346904</v>
       </c>
       <c r="N19">
-        <v>1.004779154121071</v>
+        <v>1.010458466341781</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729209380907813</v>
+        <v>1.01251494218592</v>
       </c>
       <c r="D20">
-        <v>0.996529376164994</v>
+        <v>1.020170189057915</v>
       </c>
       <c r="E20">
-        <v>0.9842215517460562</v>
+        <v>1.014626697529996</v>
       </c>
       <c r="F20">
-        <v>0.9204372901615762</v>
+        <v>1.024737035511244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031073528810941</v>
+        <v>1.027312535878115</v>
       </c>
       <c r="J20">
-        <v>1.001537152992575</v>
+        <v>1.018873470785916</v>
       </c>
       <c r="K20">
-        <v>1.010633528071628</v>
+        <v>1.023599977775662</v>
       </c>
       <c r="L20">
-        <v>0.9985476386323257</v>
+        <v>1.018076642324339</v>
       </c>
       <c r="M20">
-        <v>0.9360399864647038</v>
+        <v>1.028150400042714</v>
       </c>
       <c r="N20">
-        <v>1.004506530988706</v>
+        <v>1.010404678618871</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9679454159400224</v>
+        <v>1.011584142203292</v>
       </c>
       <c r="D21">
-        <v>0.9928434626029253</v>
+        <v>1.01947447319437</v>
       </c>
       <c r="E21">
-        <v>0.9803803151337793</v>
+        <v>1.013844754561313</v>
       </c>
       <c r="F21">
-        <v>0.9038270376147274</v>
+        <v>1.022299995494544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029315979012604</v>
+        <v>1.02710817030199</v>
       </c>
       <c r="J21">
-        <v>0.998847268847385</v>
+        <v>1.018350737289262</v>
       </c>
       <c r="K21">
-        <v>1.007961698168349</v>
+        <v>1.023117218319094</v>
       </c>
       <c r="L21">
-        <v>0.9957431721448518</v>
+        <v>1.017509345305176</v>
       </c>
       <c r="M21">
-        <v>0.9208922696758345</v>
+        <v>1.025931877040575</v>
       </c>
       <c r="N21">
-        <v>1.003599602596124</v>
+        <v>1.010229691307794</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9647353971072603</v>
+        <v>1.010999461523146</v>
       </c>
       <c r="D22">
-        <v>0.9904591547997813</v>
+        <v>1.01903717269252</v>
       </c>
       <c r="E22">
-        <v>0.9779097625712107</v>
+        <v>1.013354030411953</v>
       </c>
       <c r="F22">
-        <v>0.8925870848530579</v>
+        <v>1.020760746861388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028142664291791</v>
+        <v>1.026977875446112</v>
       </c>
       <c r="J22">
-        <v>0.9971053931057793</v>
+        <v>1.018021945344096</v>
       </c>
       <c r="K22">
-        <v>1.006222017062147</v>
+        <v>1.022813062916163</v>
       </c>
       <c r="L22">
-        <v>0.9939319112582693</v>
+        <v>1.017152848096445</v>
       </c>
       <c r="M22">
-        <v>0.9106356850557492</v>
+        <v>1.02452973983805</v>
       </c>
       <c r="N22">
-        <v>1.0030123074902</v>
+        <v>1.010119580139859</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9664452360895336</v>
+        <v>1.011309359428334</v>
       </c>
       <c r="D23">
-        <v>0.9917298641664398</v>
+        <v>1.019268982086171</v>
       </c>
       <c r="E23">
-        <v>0.9792249919529089</v>
+        <v>1.013614085535773</v>
       </c>
       <c r="F23">
-        <v>0.8986297051853908</v>
+        <v>1.021577406341652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028771662910136</v>
+        <v>1.027047118536738</v>
       </c>
       <c r="J23">
-        <v>0.9980338753236134</v>
+        <v>1.018196256242976</v>
       </c>
       <c r="K23">
-        <v>1.007150297202401</v>
+        <v>1.02297436073484</v>
       </c>
       <c r="L23">
-        <v>0.994896901624164</v>
+        <v>1.017341816279218</v>
       </c>
       <c r="M23">
-        <v>0.9161501849630346</v>
+        <v>1.025273739518401</v>
       </c>
       <c r="N23">
-        <v>1.003325354294507</v>
+        <v>1.010177960597297</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9730030512896186</v>
+        <v>1.012530556447568</v>
       </c>
       <c r="D24">
-        <v>0.9965901208886569</v>
+        <v>1.020181854889207</v>
       </c>
       <c r="E24">
-        <v>0.9842850707130602</v>
+        <v>1.014639822330542</v>
       </c>
       <c r="F24">
-        <v>0.9207039718153602</v>
+        <v>1.024777777187538</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03110194300773</v>
+        <v>1.027315931656165</v>
       </c>
       <c r="J24">
-        <v>1.001581448061345</v>
+        <v>1.018882232273585</v>
       </c>
       <c r="K24">
-        <v>1.010677383615851</v>
+        <v>1.023608060702198</v>
       </c>
       <c r="L24">
-        <v>0.998593895311321</v>
+        <v>1.018086156224617</v>
       </c>
       <c r="M24">
-        <v>0.9362830780469561</v>
+        <v>1.028187473331367</v>
       </c>
       <c r="N24">
-        <v>1.004521465121671</v>
+        <v>1.0104076107708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9802920721087925</v>
+        <v>1.01395005959941</v>
       </c>
       <c r="D25">
-        <v>1.00197326784765</v>
+        <v>1.021241715175568</v>
       </c>
       <c r="E25">
-        <v>0.9899405135217846</v>
+        <v>1.015834078254979</v>
       </c>
       <c r="F25">
-        <v>0.9435410908196507</v>
+        <v>1.028462459674692</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033551830902348</v>
+        <v>1.027620076819937</v>
       </c>
       <c r="J25">
-        <v>1.005501389575383</v>
+        <v>1.019677695838351</v>
       </c>
       <c r="K25">
-        <v>1.014541028411776</v>
+        <v>1.02434071106201</v>
       </c>
       <c r="L25">
-        <v>1.00269702344726</v>
+        <v>1.018950705770512</v>
       </c>
       <c r="M25">
-        <v>0.9570840164683604</v>
+        <v>1.031538228731713</v>
       </c>
       <c r="N25">
-        <v>1.005842913312266</v>
+        <v>1.010673710352054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015084137785888</v>
+        <v>0.9858781824694368</v>
       </c>
       <c r="D2">
-        <v>1.022087458887605</v>
+        <v>1.006088685727125</v>
       </c>
       <c r="E2">
-        <v>1.016789755207229</v>
+        <v>0.9942985331169437</v>
       </c>
       <c r="F2">
-        <v>1.031379151959334</v>
+        <v>0.9600641454543296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027856425568314</v>
+        <v>1.035335793528219</v>
       </c>
       <c r="J2">
-        <v>1.020311677675691</v>
+        <v>1.00848963794279</v>
       </c>
       <c r="K2">
-        <v>1.024922873412079</v>
+        <v>1.017463842244948</v>
       </c>
       <c r="L2">
-        <v>1.019640877351437</v>
+        <v>1.005837874096779</v>
       </c>
       <c r="M2">
-        <v>1.034187440470943</v>
+        <v>0.972109387906026</v>
       </c>
       <c r="N2">
-        <v>1.010885623835997</v>
+        <v>1.006849915260267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015908660707405</v>
+        <v>0.98981493300824</v>
       </c>
       <c r="D3">
-        <v>1.022701767512549</v>
+        <v>1.008984682341149</v>
       </c>
       <c r="E3">
-        <v>1.017485464114561</v>
+        <v>0.9973829988119362</v>
       </c>
       <c r="F3">
-        <v>1.033484698000304</v>
+        <v>0.9712746894724049</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028024443252112</v>
+        <v>1.036545201426922</v>
       </c>
       <c r="J3">
-        <v>1.020771720121332</v>
+        <v>1.010587157379692</v>
       </c>
       <c r="K3">
-        <v>1.025344299351542</v>
+        <v>1.019503878867277</v>
       </c>
       <c r="L3">
-        <v>1.02014234503132</v>
+        <v>1.008049474535584</v>
       </c>
       <c r="M3">
-        <v>1.036098064794355</v>
+        <v>0.9822888066120224</v>
       </c>
       <c r="N3">
-        <v>1.011039298832621</v>
+        <v>1.00755645946524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016442678424688</v>
+        <v>0.9923107246402101</v>
       </c>
       <c r="D4">
-        <v>1.023099366411004</v>
+        <v>1.010818997442783</v>
       </c>
       <c r="E4">
-        <v>1.01793646191169</v>
+        <v>0.9993443752271818</v>
       </c>
       <c r="F4">
-        <v>1.03484167562757</v>
+        <v>0.9782143622557474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028131507387049</v>
+        <v>1.037291340915476</v>
       </c>
       <c r="J4">
-        <v>1.021069264025487</v>
+        <v>1.01191318924391</v>
       </c>
       <c r="K4">
-        <v>1.025616399319271</v>
+        <v>1.020788577079218</v>
       </c>
       <c r="L4">
-        <v>1.020466982454274</v>
+        <v>1.009450719508167</v>
       </c>
       <c r="M4">
-        <v>1.037328573142726</v>
+        <v>0.9885830320626341</v>
       </c>
       <c r="N4">
-        <v>1.011138646340427</v>
+        <v>1.008002969425408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016667297394194</v>
+        <v>0.9933481057919158</v>
       </c>
       <c r="D5">
-        <v>1.023266540252471</v>
+        <v>1.011581068837528</v>
       </c>
       <c r="E5">
-        <v>1.018126258334186</v>
+        <v>1.000161014361231</v>
       </c>
       <c r="F5">
-        <v>1.035410873689784</v>
+        <v>0.9810628305239961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028176122095616</v>
+        <v>1.037596722075709</v>
       </c>
       <c r="J5">
-        <v>1.02119431877792</v>
+        <v>1.012463476322303</v>
       </c>
       <c r="K5">
-        <v>1.025730648464343</v>
+        <v>1.021320555029448</v>
       </c>
       <c r="L5">
-        <v>1.020603496222721</v>
+        <v>1.010032945045109</v>
       </c>
       <c r="M5">
-        <v>1.037844519566617</v>
+        <v>0.9911648227714897</v>
       </c>
       <c r="N5">
-        <v>1.011180390138239</v>
+        <v>1.008188223579171</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016705018796649</v>
+        <v>0.9935216053813738</v>
       </c>
       <c r="D6">
-        <v>1.023294610819279</v>
+        <v>1.011708502829515</v>
       </c>
       <c r="E6">
-        <v>1.01815813750316</v>
+        <v>1.00029767615135</v>
       </c>
       <c r="F6">
-        <v>1.035506370619909</v>
+        <v>0.9815372232164293</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028183589965306</v>
+        <v>1.037647521837685</v>
       </c>
       <c r="J6">
-        <v>1.021215314087121</v>
+        <v>1.012555459137719</v>
       </c>
       <c r="K6">
-        <v>1.025749823082825</v>
+        <v>1.021409410502438</v>
       </c>
       <c r="L6">
-        <v>1.020626419585812</v>
+        <v>1.010130308770133</v>
       </c>
       <c r="M6">
-        <v>1.037931070328595</v>
+        <v>0.991594698547931</v>
       </c>
       <c r="N6">
-        <v>1.01118739781488</v>
+        <v>1.008219187023829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01644567933213</v>
+        <v>0.9923246321154038</v>
       </c>
       <c r="D7">
-        <v>1.02310160010558</v>
+        <v>1.010829215430338</v>
       </c>
       <c r="E7">
-        <v>1.017938997208419</v>
+        <v>0.9993553179144459</v>
       </c>
       <c r="F7">
-        <v>1.034849286254934</v>
+        <v>0.9782526869704238</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028132105082004</v>
+        <v>1.037295453506756</v>
       </c>
       <c r="J7">
-        <v>1.021070935142433</v>
+        <v>1.011920570037226</v>
       </c>
       <c r="K7">
-        <v>1.025617926478998</v>
+        <v>1.020795716818927</v>
       </c>
       <c r="L7">
-        <v>1.020468806416665</v>
+        <v>1.009458525830034</v>
       </c>
       <c r="M7">
-        <v>1.037335472551563</v>
+        <v>0.9886177757337603</v>
       </c>
       <c r="N7">
-        <v>1.011139204209425</v>
+        <v>1.008005454340315</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015362685887752</v>
+        <v>0.9872196074802291</v>
       </c>
       <c r="D8">
-        <v>1.022295046208884</v>
+        <v>1.007075853903293</v>
       </c>
       <c r="E8">
-        <v>1.017024701219309</v>
+        <v>0.9953482899924884</v>
       </c>
       <c r="F8">
-        <v>1.032091877889973</v>
+        <v>0.9639219407082098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027913551152555</v>
+        <v>1.035752334780453</v>
       </c>
       <c r="J8">
-        <v>1.020467178660187</v>
+        <v>1.009205150902099</v>
       </c>
       <c r="K8">
-        <v>1.025065418468549</v>
+        <v>1.018160823774921</v>
       </c>
       <c r="L8">
-        <v>1.019810318308593</v>
+        <v>1.006591642529104</v>
       </c>
       <c r="M8">
-        <v>1.034834361212831</v>
+        <v>0.9756138532328418</v>
       </c>
       <c r="N8">
-        <v>1.010937577619989</v>
+        <v>1.007090965555031</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0134581519896</v>
+        <v>0.9778047630776263</v>
       </c>
       <c r="D9">
-        <v>1.020874592173676</v>
+        <v>1.000138182534993</v>
       </c>
       <c r="E9">
-        <v>1.015419984945692</v>
+        <v>0.9880068023288203</v>
       </c>
       <c r="F9">
-        <v>1.027189872362439</v>
+        <v>0.9359241956591098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02751571120355</v>
+        <v>1.032731648830024</v>
       </c>
       <c r="J9">
-        <v>1.019402277278631</v>
+        <v>1.004166395458363</v>
       </c>
       <c r="K9">
-        <v>1.024087313516823</v>
+        <v>1.013229018221676</v>
       </c>
       <c r="L9">
-        <v>1.018651192055721</v>
+        <v>1.001297504695641</v>
       </c>
       <c r="M9">
-        <v>1.030381460319251</v>
+        <v>0.9501500856876335</v>
       </c>
       <c r="N9">
-        <v>1.010581602672693</v>
+        <v>1.005392920020627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012191093028334</v>
+        <v>0.9712079671710208</v>
       </c>
       <c r="D10">
-        <v>1.019928196252319</v>
+        <v>0.9952615778961114</v>
       </c>
       <c r="E10">
-        <v>1.014354538316065</v>
+        <v>0.9828974169628925</v>
       </c>
       <c r="F10">
-        <v>1.023890989568029</v>
+        <v>0.9148210898025749</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02724186259601</v>
+        <v>1.0304764770062</v>
       </c>
       <c r="J10">
-        <v>1.018691696727212</v>
+        <v>1.000612400939576</v>
       </c>
       <c r="K10">
-        <v>1.023432217713777</v>
+        <v>1.009716916318972</v>
       </c>
       <c r="L10">
-        <v>1.017879299088782</v>
+        <v>0.9975824857120935</v>
       </c>
       <c r="M10">
-        <v>1.027380417523079</v>
+        <v>0.9309197309744011</v>
       </c>
       <c r="N10">
-        <v>1.010343839476615</v>
+        <v>1.004194744519145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011643076034334</v>
+        <v>0.9682652572903752</v>
       </c>
       <c r="D11">
-        <v>1.019518539400238</v>
+        <v>0.993080737477272</v>
       </c>
       <c r="E11">
-        <v>1.01389423712305</v>
+        <v>0.9806268001465015</v>
       </c>
       <c r="F11">
-        <v>1.022454784957048</v>
+        <v>0.9049230993125403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027121221850237</v>
+        <v>1.02943113924937</v>
       </c>
       <c r="J11">
-        <v>1.018383859840849</v>
+        <v>0.9990205402657902</v>
       </c>
       <c r="K11">
-        <v>1.023147837486483</v>
+        <v>1.008134331365563</v>
       </c>
       <c r="L11">
-        <v>1.017545272656863</v>
+        <v>0.9959235541477549</v>
       </c>
       <c r="M11">
-        <v>1.026072840084491</v>
+        <v>0.9218921946429267</v>
       </c>
       <c r="N11">
-        <v>1.01024078195399</v>
+        <v>1.003658024017571</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011439613162708</v>
+        <v>0.9671581963471608</v>
       </c>
       <c r="D12">
-        <v>1.019366395943841</v>
+        <v>0.9922592459262782</v>
       </c>
       <c r="E12">
-        <v>1.013723418725557</v>
+        <v>0.9797738981334835</v>
       </c>
       <c r="F12">
-        <v>1.021920110616982</v>
+        <v>0.9011114981525339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02707609916055</v>
+        <v>1.029031213173199</v>
       </c>
       <c r="J12">
-        <v>1.018269493247857</v>
+        <v>0.9984205821107374</v>
       </c>
       <c r="K12">
-        <v>1.023042097922</v>
+        <v>1.007536264506361</v>
       </c>
       <c r="L12">
-        <v>1.017421232282377</v>
+        <v>0.9952991353892841</v>
       </c>
       <c r="M12">
-        <v>1.025585895174092</v>
+        <v>0.918414714743099</v>
       </c>
       <c r="N12">
-        <v>1.010202486283023</v>
+        <v>1.003455738166185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011483252327393</v>
+        <v>0.9673963174190258</v>
       </c>
       <c r="D13">
-        <v>1.019399030258666</v>
+        <v>0.9924359949345248</v>
       </c>
       <c r="E13">
-        <v>1.013760052686529</v>
+        <v>0.9799572917093274</v>
       </c>
       <c r="F13">
-        <v>1.022034855164771</v>
+        <v>0.9019356095225016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027085792243821</v>
+        <v>1.029117550082267</v>
       </c>
       <c r="J13">
-        <v>1.018294026271795</v>
+        <v>0.9985496806416111</v>
       </c>
       <c r="K13">
-        <v>1.023064784308926</v>
+        <v>1.007665031986002</v>
       </c>
       <c r="L13">
-        <v>1.017447837909807</v>
+        <v>0.9954334592917417</v>
       </c>
       <c r="M13">
-        <v>1.025690403746883</v>
+        <v>0.9191666318529743</v>
       </c>
       <c r="N13">
-        <v>1.010210701533859</v>
+        <v>1.003499265790714</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011626255787072</v>
+        <v>0.9681740397603229</v>
       </c>
       <c r="D14">
-        <v>1.019505962736695</v>
+        <v>0.9930130726712526</v>
       </c>
       <c r="E14">
-        <v>1.013880113992518</v>
+        <v>0.9805564975067009</v>
       </c>
       <c r="F14">
-        <v>1.022410613387823</v>
+        <v>0.9046109274936912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027117498354668</v>
+        <v>1.029398327447587</v>
       </c>
       <c r="J14">
-        <v>1.01837440671463</v>
+        <v>0.9989711290754918</v>
       </c>
       <c r="K14">
-        <v>1.023139099226118</v>
+        <v>1.008085109740973</v>
       </c>
       <c r="L14">
-        <v>1.017535018786247</v>
+        <v>0.9958721114387914</v>
       </c>
       <c r="M14">
-        <v>1.026032614817688</v>
+        <v>0.9216074085488739</v>
       </c>
       <c r="N14">
-        <v>1.010237616737433</v>
+        <v>1.003641364185935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>1.011714377552914</v>
+        <v>0.9686513295471582</v>
       </c>
       <c r="D15">
-        <v>1.019571850207071</v>
+        <v>0.9933670800541893</v>
       </c>
       <c r="E15">
-        <v>1.013954108688857</v>
+        <v>0.9809244051704947</v>
       </c>
       <c r="F15">
-        <v>1.022641969766212</v>
+        <v>0.9062406623780154</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027136992234852</v>
+        <v>1.029569736455756</v>
       </c>
       <c r="J15">
-        <v>1.018423928819185</v>
+        <v>0.9992296245747198</v>
       </c>
       <c r="K15">
-        <v>1.023184872776381</v>
+        <v>1.008342546996371</v>
       </c>
       <c r="L15">
-        <v>1.017588738048775</v>
+        <v>0.9961412685457898</v>
       </c>
       <c r="M15">
-        <v>1.026243295348886</v>
+        <v>0.9230941297144519</v>
       </c>
       <c r="N15">
-        <v>1.010254198031607</v>
+        <v>1.003728520399515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012227476401061</v>
+        <v>0.971401362348563</v>
       </c>
       <c r="D16">
-        <v>1.019955386795081</v>
+        <v>0.995404771527305</v>
       </c>
       <c r="E16">
-        <v>1.014385109083321</v>
+        <v>0.9830468230651933</v>
       </c>
       <c r="F16">
-        <v>1.023986138947763</v>
+        <v>0.9154603173886785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027249825545245</v>
+        <v>1.030544298801893</v>
       </c>
       <c r="J16">
-        <v>1.018712123703787</v>
+        <v>1.000716874053049</v>
       </c>
       <c r="K16">
-        <v>1.02345107593598</v>
+        <v>1.009820569539536</v>
       </c>
       <c r="L16">
-        <v>1.017901471765061</v>
+        <v>0.9976914702729253</v>
       </c>
       <c r="M16">
-        <v>1.027467023407028</v>
+        <v>0.9315025903424976</v>
       </c>
       <c r="N16">
-        <v>1.010350676879001</v>
+        <v>1.004229968775496</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012549498361295</v>
+        <v>0.9731026057622361</v>
       </c>
       <c r="D17">
-        <v>1.020196006680199</v>
+        <v>0.9966637647097714</v>
       </c>
       <c r="E17">
-        <v>1.014655744579163</v>
+        <v>0.9843620870114085</v>
       </c>
       <c r="F17">
-        <v>1.024827195393797</v>
+        <v>0.9210269936451635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027320049679481</v>
+        <v>1.031136367467524</v>
       </c>
       <c r="J17">
-        <v>1.018892860644194</v>
+        <v>1.001635147499486</v>
       </c>
       <c r="K17">
-        <v>1.023617865542336</v>
+        <v>1.010730544180323</v>
       </c>
       <c r="L17">
-        <v>1.018097697576043</v>
+        <v>0.9986499760716607</v>
       </c>
       <c r="M17">
-        <v>1.02823244122872</v>
+        <v>0.93657752098436</v>
       </c>
       <c r="N17">
-        <v>1.010411167665015</v>
+        <v>1.004539569912494</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.012737388860058</v>
+        <v>0.9740866690942278</v>
       </c>
       <c r="D18">
-        <v>1.020336369553224</v>
+        <v>0.9973915130966027</v>
       </c>
       <c r="E18">
-        <v>1.014813702367506</v>
+        <v>0.9851236977237635</v>
       </c>
       <c r="F18">
-        <v>1.025317022567164</v>
+        <v>0.9242022511655584</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027360811330537</v>
+        <v>1.031475172208054</v>
       </c>
       <c r="J18">
-        <v>1.018998266867247</v>
+        <v>1.002165706063405</v>
       </c>
       <c r="K18">
-        <v>1.023715081686386</v>
+        <v>1.011255424843434</v>
       </c>
       <c r="L18">
-        <v>1.018212172831337</v>
+        <v>0.9992042532348764</v>
       </c>
       <c r="M18">
-        <v>1.028678116738073</v>
+        <v>0.9394715485998647</v>
       </c>
       <c r="N18">
-        <v>1.010446440823816</v>
+        <v>1.004718445674835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012801464910723</v>
+        <v>0.9744208401231191</v>
       </c>
       <c r="D19">
-        <v>1.020384231917139</v>
+        <v>0.9976385646009877</v>
       </c>
       <c r="E19">
-        <v>1.014867578935498</v>
+        <v>0.9853824646444966</v>
       </c>
       <c r="F19">
-        <v>1.025483915416099</v>
+        <v>0.9252733173402158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027374676307626</v>
+        <v>1.031589621113287</v>
       </c>
       <c r="J19">
-        <v>1.019034205180507</v>
+        <v>1.002345774847424</v>
       </c>
       <c r="K19">
-        <v>1.02374821810516</v>
+        <v>1.011433421331077</v>
       </c>
       <c r="L19">
-        <v>1.018251209318264</v>
+        <v>0.9993924507459069</v>
       </c>
       <c r="M19">
-        <v>1.028829949346904</v>
+        <v>0.9404476237504819</v>
       </c>
       <c r="N19">
-        <v>1.010458466341781</v>
+        <v>1.004779154121071</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01251494218592</v>
+        <v>0.9729209380907811</v>
       </c>
       <c r="D20">
-        <v>1.020170189057915</v>
+        <v>0.9965293761649942</v>
       </c>
       <c r="E20">
-        <v>1.014626697529996</v>
+        <v>0.9842215517460561</v>
       </c>
       <c r="F20">
-        <v>1.024737035511244</v>
+        <v>0.9204372901615765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027312535878115</v>
+        <v>1.031073528810941</v>
       </c>
       <c r="J20">
-        <v>1.018873470785916</v>
+        <v>1.001537152992575</v>
       </c>
       <c r="K20">
-        <v>1.023599977775662</v>
+        <v>1.010633528071628</v>
       </c>
       <c r="L20">
-        <v>1.018076642324339</v>
+        <v>0.9985476386323257</v>
       </c>
       <c r="M20">
-        <v>1.028150400042714</v>
+        <v>0.9360399864647041</v>
       </c>
       <c r="N20">
-        <v>1.010404678618871</v>
+        <v>1.004506530988706</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011584142203292</v>
+        <v>0.9679454159400224</v>
       </c>
       <c r="D21">
-        <v>1.01947447319437</v>
+        <v>0.9928434626029254</v>
       </c>
       <c r="E21">
-        <v>1.013844754561313</v>
+        <v>0.9803803151337793</v>
       </c>
       <c r="F21">
-        <v>1.022299995494544</v>
+        <v>0.9038270376147273</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02710817030199</v>
+        <v>1.029315979012604</v>
       </c>
       <c r="J21">
-        <v>1.018350737289262</v>
+        <v>0.998847268847385</v>
       </c>
       <c r="K21">
-        <v>1.023117218319094</v>
+        <v>1.00796169816835</v>
       </c>
       <c r="L21">
-        <v>1.017509345305176</v>
+        <v>0.9957431721448518</v>
       </c>
       <c r="M21">
-        <v>1.025931877040575</v>
+        <v>0.920892269675834</v>
       </c>
       <c r="N21">
-        <v>1.010229691307794</v>
+        <v>1.003599602596124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010999461523146</v>
+        <v>0.9647353971072609</v>
       </c>
       <c r="D22">
-        <v>1.01903717269252</v>
+        <v>0.9904591547997817</v>
       </c>
       <c r="E22">
-        <v>1.013354030411953</v>
+        <v>0.9779097625712112</v>
       </c>
       <c r="F22">
-        <v>1.020760746861388</v>
+        <v>0.8925870848530569</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026977875446112</v>
+        <v>1.028142664291791</v>
       </c>
       <c r="J22">
-        <v>1.018021945344096</v>
+        <v>0.9971053931057798</v>
       </c>
       <c r="K22">
-        <v>1.022813062916163</v>
+        <v>1.006222017062147</v>
       </c>
       <c r="L22">
-        <v>1.017152848096445</v>
+        <v>0.9939319112582699</v>
       </c>
       <c r="M22">
-        <v>1.02452973983805</v>
+        <v>0.9106356850557484</v>
       </c>
       <c r="N22">
-        <v>1.010119580139859</v>
+        <v>1.0030123074902</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011309359428334</v>
+        <v>0.9664452360895338</v>
       </c>
       <c r="D23">
-        <v>1.019268982086171</v>
+        <v>0.9917298641664397</v>
       </c>
       <c r="E23">
-        <v>1.013614085535773</v>
+        <v>0.9792249919529086</v>
       </c>
       <c r="F23">
-        <v>1.021577406341652</v>
+        <v>0.898629705185392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027047118536738</v>
+        <v>1.028771662910136</v>
       </c>
       <c r="J23">
-        <v>1.018196256242976</v>
+        <v>0.9980338753236134</v>
       </c>
       <c r="K23">
-        <v>1.02297436073484</v>
+        <v>1.0071502972024</v>
       </c>
       <c r="L23">
-        <v>1.017341816279218</v>
+        <v>0.9948969016241639</v>
       </c>
       <c r="M23">
-        <v>1.025273739518401</v>
+        <v>0.9161501849630356</v>
       </c>
       <c r="N23">
-        <v>1.010177960597297</v>
+        <v>1.003325354294507</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012530556447568</v>
+        <v>0.9730030512896187</v>
       </c>
       <c r="D24">
-        <v>1.020181854889207</v>
+        <v>0.9965901208886573</v>
       </c>
       <c r="E24">
-        <v>1.014639822330542</v>
+        <v>0.9842850707130602</v>
       </c>
       <c r="F24">
-        <v>1.024777777187538</v>
+        <v>0.9207039718153596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027315931656165</v>
+        <v>1.031101943007731</v>
       </c>
       <c r="J24">
-        <v>1.018882232273585</v>
+        <v>1.001581448061345</v>
       </c>
       <c r="K24">
-        <v>1.023608060702198</v>
+        <v>1.010677383615851</v>
       </c>
       <c r="L24">
-        <v>1.018086156224617</v>
+        <v>0.9985938953113211</v>
       </c>
       <c r="M24">
-        <v>1.028187473331367</v>
+        <v>0.9362830780469558</v>
       </c>
       <c r="N24">
-        <v>1.0104076107708</v>
+        <v>1.004521465121671</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01395005959941</v>
+        <v>0.9802920721087925</v>
       </c>
       <c r="D25">
-        <v>1.021241715175568</v>
+        <v>1.00197326784765</v>
       </c>
       <c r="E25">
-        <v>1.015834078254979</v>
+        <v>0.9899405135217842</v>
       </c>
       <c r="F25">
-        <v>1.028462459674692</v>
+        <v>0.9435410908196518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027620076819937</v>
+        <v>1.033551830902348</v>
       </c>
       <c r="J25">
-        <v>1.019677695838351</v>
+        <v>1.005501389575383</v>
       </c>
       <c r="K25">
-        <v>1.02434071106201</v>
+        <v>1.014541028411776</v>
       </c>
       <c r="L25">
-        <v>1.018950705770512</v>
+        <v>1.002697023447259</v>
       </c>
       <c r="M25">
-        <v>1.031538228731713</v>
+        <v>0.9570840164683614</v>
       </c>
       <c r="N25">
-        <v>1.010673710352054</v>
+        <v>1.005842913312266</v>
       </c>
     </row>
   </sheetData>
